--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="2775"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,43 +111,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-购买精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用余额——购买成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${DebtBatchUtils.getFinancePlan()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-购买精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用余额——购买成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +511,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -520,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -535,7 +539,7 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -550,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -564,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -579,22 +583,22 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>50000</v>
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="2775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="2475"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -151,7 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${DebtBatchUtils.getFinancePlan()}</t>
+    <t>${FinancePlanUtils.getNormalfpId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -11,7 +11,6 @@
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-购买精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用余额——购买成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,10 @@
   </si>
   <si>
     <t>${FinancePlanUtils.getNormalfpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-理财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -539,7 +539,7 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -568,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -583,22 +583,22 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>正例-理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -602,6 +606,636 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s">
         <v>14</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,31 +119,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用余额——购买成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getNormalfpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getNormalfpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${UserInfoUtils.getBankUser(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000</t>
+    <t>使用余额购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+建设银行卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,11 +171,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-理财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>${FinancePlanUtils.chargeMoney()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+中信银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+华夏银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+广发银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+平安银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+农业银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+中国银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+招商银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+光大银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+交通银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+民生银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+浦发银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+工商银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+兴业银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合支付——余额+邮政银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +703,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -543,22 +731,22 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -572,37 +760,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
@@ -611,40 +799,40 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" t="s">
@@ -653,16 +841,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -671,22 +859,22 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
@@ -695,16 +883,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -713,22 +901,22 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" t="s">
@@ -737,16 +925,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -755,22 +943,22 @@
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" t="s">
@@ -779,16 +967,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -797,22 +985,22 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" t="s">
@@ -821,16 +1009,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -839,22 +1027,22 @@
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" t="s">
@@ -863,16 +1051,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -881,22 +1069,22 @@
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" t="s">
@@ -905,16 +1093,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -923,22 +1111,22 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
@@ -947,16 +1135,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -965,22 +1153,22 @@
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s">
@@ -989,16 +1177,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1007,22 +1195,22 @@
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s">
@@ -1031,16 +1219,16 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -1049,22 +1237,22 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s">
@@ -1073,16 +1261,16 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1091,22 +1279,22 @@
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s">
@@ -1115,16 +1303,16 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1133,22 +1321,22 @@
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s">
@@ -1157,16 +1345,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1175,22 +1363,22 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s">
@@ -1199,16 +1387,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1217,22 +1405,22 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByBalance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="76">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>正例-理财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -703,7 +699,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -763,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -775,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -799,25 +795,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -826,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -841,16 +837,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -865,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -883,16 +879,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -907,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -925,16 +921,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -949,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -967,16 +963,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -991,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -1009,16 +1005,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1033,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -1051,16 +1047,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1075,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -1093,16 +1089,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1117,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -1135,16 +1131,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1159,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -1177,16 +1173,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1201,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -1219,16 +1215,16 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -1243,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -1261,16 +1257,16 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1285,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
@@ -1303,16 +1299,16 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1327,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
@@ -1345,16 +1341,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1369,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -1387,16 +1383,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1411,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
